--- a/update_instances/ig/ValueSet-vsLOINC.xlsx
+++ b/update_instances/ig/ValueSet-vsLOINC.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Codes LOINC</t>
+    <t>LOINC codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:24:55+00:00</t>
+    <t>2024-03-27T14:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
